--- a/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074C4AFD-E2FB-4FAC-804E-3B701424E1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CD3C7E-DCEB-49B6-B80D-CD65AEEBE038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="2" r:id="rId1"/>
@@ -923,12 +923,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3696,7 +3695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0896514F-BA47-4116-910D-622420A11612}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -3730,7 +3729,7 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3741,7 +3740,7 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3752,7 +3751,7 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3763,7 +3762,7 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3774,7 +3773,7 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3785,7 +3784,7 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3796,7 +3795,7 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3807,7 +3806,7 @@
       <c r="B10" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3818,7 +3817,7 @@
       <c r="B11" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3829,7 +3828,7 @@
       <c r="B12" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3840,7 +3839,7 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3851,7 +3850,7 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3862,7 +3861,7 @@
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3873,7 +3872,7 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3884,7 +3883,7 @@
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3895,7 +3894,7 @@
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3906,7 +3905,7 @@
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3917,7 +3916,7 @@
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3928,7 +3927,7 @@
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3939,7 +3938,7 @@
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3950,7 +3949,7 @@
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3961,7 +3960,7 @@
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3972,7 +3971,7 @@
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3983,7 +3982,7 @@
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>228</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3997,7 +3996,7 @@
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4008,7 +4007,7 @@
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4019,7 +4018,7 @@
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4030,7 +4029,7 @@
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4041,7 +4040,7 @@
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4052,7 +4051,7 @@
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4063,7 +4062,7 @@
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4074,7 +4073,7 @@
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4085,7 +4084,7 @@
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4096,7 +4095,7 @@
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4107,7 +4106,7 @@
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4118,7 +4117,7 @@
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4129,7 +4128,7 @@
       <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4140,7 +4139,7 @@
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4151,7 +4150,7 @@
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>243</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4165,7 +4164,7 @@
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4176,7 +4175,7 @@
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4187,7 +4186,7 @@
       <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4198,7 +4197,7 @@
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4209,7 +4208,7 @@
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4220,7 +4219,7 @@
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4231,7 +4230,7 @@
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4242,7 +4241,7 @@
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4253,7 +4252,7 @@
       <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4264,7 +4263,7 @@
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4275,7 +4274,7 @@
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4286,7 +4285,7 @@
       <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4297,7 +4296,7 @@
       <c r="B54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4308,7 +4307,7 @@
       <c r="B55" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -4322,7 +4321,7 @@
       <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4333,7 +4332,7 @@
       <c r="B57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4344,7 +4343,7 @@
       <c r="B58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4355,7 +4354,7 @@
       <c r="B59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4366,7 +4365,7 @@
       <c r="B60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4377,7 +4376,7 @@
       <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4388,7 +4387,7 @@
       <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4399,7 +4398,7 @@
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4410,7 +4409,7 @@
       <c r="B64" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4421,7 +4420,7 @@
       <c r="B65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4432,7 +4431,7 @@
       <c r="B66" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4446,7 +4445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C99E74-2DC6-4D53-8052-70DB62DA5F38}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D41" sqref="D41:D44"/>
     </sheetView>
   </sheetViews>
@@ -4488,7 +4487,6 @@
       <c r="D3" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -4501,7 +4499,6 @@
         <v>196</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -5109,6 +5106,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="D35:D36"/>
@@ -5117,22 +5130,6 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CD3C7E-DCEB-49B6-B80D-CD65AEEBE038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60635996-B9CF-4DBF-B495-CE26A34B5B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="285">
   <si>
     <t>Kuchnia_barek</t>
   </si>
@@ -876,6 +876,12 @@
   </si>
   <si>
     <t>WC</t>
+  </si>
+  <si>
+    <t>co to?</t>
+  </si>
+  <si>
+    <t>czy traktować jak roletę?</t>
   </si>
 </sst>
 </file>
@@ -1214,24 +1220,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AB5750-FA9E-494B-BF4E-2646FF05F6F3}">
-  <dimension ref="A1:D250"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1242,7 +1250,7 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1253,7 +1261,7 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1264,7 +1272,7 @@
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1275,7 +1283,7 @@
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1286,7 +1294,7 @@
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1297,7 +1305,7 @@
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1308,7 +1316,7 @@
       <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1319,7 +1327,7 @@
       <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1330,7 +1338,7 @@
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1341,7 +1349,7 @@
       <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1352,7 +1360,7 @@
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1363,7 +1371,7 @@
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1374,7 +1382,7 @@
       <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1385,7 +1393,7 @@
       <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1396,7 +1404,7 @@
       <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1407,7 +1415,7 @@
       <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1418,7 +1426,7 @@
       <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1429,7 +1437,7 @@
       <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1440,7 +1448,7 @@
       <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1451,7 +1459,7 @@
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1462,7 +1470,7 @@
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1473,7 +1481,7 @@
       <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1484,7 +1492,7 @@
       <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1495,7 +1503,7 @@
       <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1506,7 +1514,7 @@
       <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1517,7 +1525,7 @@
       <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1528,7 +1536,7 @@
       <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1539,7 +1547,7 @@
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1550,7 +1558,7 @@
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1561,7 +1569,7 @@
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1572,7 +1580,7 @@
       <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1583,7 +1591,7 @@
       <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1594,7 +1602,7 @@
       <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1605,7 +1613,7 @@
       <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1616,7 +1624,7 @@
       <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1627,7 +1635,7 @@
       <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1638,7 +1646,7 @@
       <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1649,7 +1657,7 @@
       <c r="A39" s="1">
         <v>39</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1660,7 +1668,7 @@
       <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1671,7 +1679,7 @@
       <c r="A41" s="1">
         <v>41</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1682,7 +1690,7 @@
       <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1693,7 +1701,7 @@
       <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1704,7 +1712,7 @@
       <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1715,7 +1723,7 @@
       <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1726,7 +1734,7 @@
       <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1737,7 +1745,7 @@
       <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1748,157 +1756,157 @@
       <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -1908,8 +1916,11 @@
       <c r="C62" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -1919,8 +1930,11 @@
       <c r="C63" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -1934,7 +1948,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -1945,7 +1959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -1956,7 +1970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -1967,7 +1981,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -1977,41 +1991,44 @@
       <c r="C68" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -2026,7 +2043,7 @@
       <c r="A81" s="1">
         <v>81</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -2037,7 +2054,7 @@
       <c r="A82" s="1">
         <v>82</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -2048,7 +2065,7 @@
       <c r="A83" s="1">
         <v>83</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -2059,7 +2076,7 @@
       <c r="A84" s="1">
         <v>84</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2070,7 +2087,7 @@
       <c r="A85" s="1">
         <v>85</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -2081,7 +2098,7 @@
       <c r="A86" s="1">
         <v>86</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -2092,7 +2109,7 @@
       <c r="A87" s="1">
         <v>87</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -2103,7 +2120,7 @@
       <c r="A88" s="1">
         <v>88</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -2114,7 +2131,7 @@
       <c r="A89" s="1">
         <v>89</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -2125,7 +2142,7 @@
       <c r="A90" s="1">
         <v>90</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -2136,7 +2153,7 @@
       <c r="A91" s="1">
         <v>91</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -2147,7 +2164,7 @@
       <c r="A92" s="1">
         <v>92</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -2158,7 +2175,7 @@
       <c r="A93" s="1">
         <v>93</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -2169,7 +2186,7 @@
       <c r="A94" s="1">
         <v>94</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -2180,7 +2197,7 @@
       <c r="A95" s="1">
         <v>95</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -2191,7 +2208,7 @@
       <c r="A96" s="1">
         <v>96</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -2202,7 +2219,7 @@
       <c r="A97" s="1">
         <v>97</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -2213,7 +2230,7 @@
       <c r="A98" s="1">
         <v>98</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -2224,7 +2241,7 @@
       <c r="A99" s="1">
         <v>99</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -2235,7 +2252,7 @@
       <c r="A100" s="1">
         <v>100</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -2246,7 +2263,7 @@
       <c r="A101" s="1">
         <v>101</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -2257,7 +2274,7 @@
       <c r="A102" s="1">
         <v>102</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -2268,7 +2285,7 @@
       <c r="A103" s="1">
         <v>103</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -2279,7 +2296,7 @@
       <c r="A104" s="1">
         <v>104</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -2290,7 +2307,7 @@
       <c r="A105" s="1">
         <v>105</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -2301,7 +2318,7 @@
       <c r="A106" s="1">
         <v>106</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -2312,7 +2329,7 @@
       <c r="A107" s="1">
         <v>107</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -2323,7 +2340,7 @@
       <c r="A108" s="1">
         <v>108</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -2334,7 +2351,7 @@
       <c r="A109" s="1">
         <v>109</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -2345,7 +2362,7 @@
       <c r="A110" s="1">
         <v>110</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -2356,7 +2373,7 @@
       <c r="A111" s="1">
         <v>111</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -2367,7 +2384,7 @@
       <c r="A112" s="1">
         <v>112</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -2378,7 +2395,7 @@
       <c r="A113" s="1">
         <v>113</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -2389,7 +2406,7 @@
       <c r="A114" s="1">
         <v>114</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -2400,7 +2417,7 @@
       <c r="A115" s="1">
         <v>115</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -2411,7 +2428,7 @@
       <c r="A116" s="1">
         <v>116</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -2422,7 +2439,7 @@
       <c r="A117" s="1">
         <v>117</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -2433,7 +2450,7 @@
       <c r="A118" s="1">
         <v>118</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -2444,7 +2461,7 @@
       <c r="A119" s="1">
         <v>119</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -2455,7 +2472,7 @@
       <c r="A120" s="1">
         <v>120</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -2466,7 +2483,7 @@
       <c r="A121" s="1">
         <v>121</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -2477,7 +2494,7 @@
       <c r="A122" s="1">
         <v>122</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -2488,7 +2505,7 @@
       <c r="A123" s="1">
         <v>123</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -2499,7 +2516,7 @@
       <c r="A124" s="1">
         <v>124</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -2510,7 +2527,7 @@
       <c r="A125" s="1">
         <v>125</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -2521,7 +2538,7 @@
       <c r="A126" s="1">
         <v>126</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -2532,7 +2549,7 @@
       <c r="A127" s="1">
         <v>127</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -2543,7 +2560,7 @@
       <c r="A128" s="1">
         <v>128</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -2970,7 +2987,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -2981,7 +2998,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -2995,7 +3012,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -3009,7 +3026,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -3023,7 +3040,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -3037,7 +3054,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -3051,7 +3068,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -3064,8 +3081,11 @@
       <c r="D167" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -3079,7 +3099,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -3093,7 +3113,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -3104,7 +3124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -3118,7 +3138,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -3132,7 +3152,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -3146,7 +3166,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -3160,7 +3180,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -3174,7 +3194,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -3695,7 +3715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0896514F-BA47-4116-910D-622420A11612}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -4445,7 +4465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C99E74-2DC6-4D53-8052-70DB62DA5F38}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D41" sqref="D41:D44"/>
     </sheetView>
   </sheetViews>

--- a/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60635996-B9CF-4DBF-B495-CE26A34B5B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769CC26A-E4B7-499F-B0ED-82B83F247FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="2" r:id="rId1"/>
     <sheet name="Lighting-Switch" sheetId="3" r:id="rId2"/>
     <sheet name="Lighting-DIM" sheetId="4" r:id="rId3"/>
+    <sheet name="Sensors" sheetId="5" r:id="rId4"/>
+    <sheet name="AC" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="345">
   <si>
     <t>Kuchnia_barek</t>
   </si>
@@ -882,6 +884,186 @@
   </si>
   <si>
     <t>czy traktować jak roletę?</t>
+  </si>
+  <si>
+    <t>KON_001</t>
+  </si>
+  <si>
+    <t>BAR_001</t>
+  </si>
+  <si>
+    <t>Doorbell_001</t>
+  </si>
+  <si>
+    <t>Doorbell_002</t>
+  </si>
+  <si>
+    <t>KON_002</t>
+  </si>
+  <si>
+    <t>KON_003</t>
+  </si>
+  <si>
+    <t>KON_004</t>
+  </si>
+  <si>
+    <t>KON_005</t>
+  </si>
+  <si>
+    <t>KON_006</t>
+  </si>
+  <si>
+    <t>KON_007</t>
+  </si>
+  <si>
+    <t>KON_008</t>
+  </si>
+  <si>
+    <t>KON_009</t>
+  </si>
+  <si>
+    <t>KON_010</t>
+  </si>
+  <si>
+    <t>KON_011</t>
+  </si>
+  <si>
+    <t>KON_012</t>
+  </si>
+  <si>
+    <t>KON_013</t>
+  </si>
+  <si>
+    <t>KON_014</t>
+  </si>
+  <si>
+    <t>KON_015</t>
+  </si>
+  <si>
+    <t>KON_016</t>
+  </si>
+  <si>
+    <t>KON_017</t>
+  </si>
+  <si>
+    <t>KON_018</t>
+  </si>
+  <si>
+    <t>KON_019</t>
+  </si>
+  <si>
+    <t>KON_020</t>
+  </si>
+  <si>
+    <t>KON_021</t>
+  </si>
+  <si>
+    <t>KON_022</t>
+  </si>
+  <si>
+    <t>KON_023</t>
+  </si>
+  <si>
+    <t>KON_024</t>
+  </si>
+  <si>
+    <t>KON_025</t>
+  </si>
+  <si>
+    <t>KON_026</t>
+  </si>
+  <si>
+    <t>KON_027</t>
+  </si>
+  <si>
+    <t>KON_028</t>
+  </si>
+  <si>
+    <t>KON_029</t>
+  </si>
+  <si>
+    <t>KON_030</t>
+  </si>
+  <si>
+    <t>KON_031</t>
+  </si>
+  <si>
+    <t>BAR_002</t>
+  </si>
+  <si>
+    <t>BAR_003</t>
+  </si>
+  <si>
+    <t>BAR_004</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>GWC</t>
+  </si>
+  <si>
+    <t>EntranceDeathZone</t>
+  </si>
+  <si>
+    <t>AC_001</t>
+  </si>
+  <si>
+    <t>AC_002</t>
+  </si>
+  <si>
+    <t>AC_003</t>
+  </si>
+  <si>
+    <t>AC_004</t>
+  </si>
+  <si>
+    <t>AC_005</t>
+  </si>
+  <si>
+    <t>AC_006</t>
+  </si>
+  <si>
+    <t>AC_007</t>
+  </si>
+  <si>
+    <t>AC_008</t>
+  </si>
+  <si>
+    <t>AC_009</t>
+  </si>
+  <si>
+    <t>AC_010</t>
+  </si>
+  <si>
+    <t>AC_011</t>
+  </si>
+  <si>
+    <t>AC_012</t>
+  </si>
+  <si>
+    <t>AC_013</t>
+  </si>
+  <si>
+    <t>AC_014</t>
+  </si>
+  <si>
+    <t>AC_015</t>
+  </si>
+  <si>
+    <t>AC_016</t>
+  </si>
+  <si>
+    <t>AC_017</t>
+  </si>
+  <si>
+    <t>AC_018</t>
+  </si>
+  <si>
+    <t>AC_019</t>
+  </si>
+  <si>
+    <t>AC_020</t>
   </si>
 </sst>
 </file>
@@ -929,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -938,6 +1120,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AB5750-FA9E-494B-BF4E-2646FF05F6F3}">
   <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,7 +2123,7 @@
       <c r="A64" s="1">
         <v>64</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2571,7 +2756,7 @@
       <c r="A131" s="1">
         <v>131</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -2585,7 +2770,7 @@
       <c r="A132" s="1">
         <v>132</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -2599,7 +2784,7 @@
       <c r="A133" s="1">
         <v>133</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -2613,7 +2798,7 @@
       <c r="A134" s="1">
         <v>134</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -2627,7 +2812,7 @@
       <c r="A135" s="1">
         <v>135</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -2641,7 +2826,7 @@
       <c r="A136" s="1">
         <v>136</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -2655,7 +2840,7 @@
       <c r="A137" s="1">
         <v>137</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -2669,7 +2854,7 @@
       <c r="A138" s="1">
         <v>138</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -2683,7 +2868,7 @@
       <c r="A139" s="1">
         <v>139</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -2697,7 +2882,7 @@
       <c r="A140" s="1">
         <v>140</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -2711,7 +2896,7 @@
       <c r="A141" s="1">
         <v>141</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -2725,7 +2910,7 @@
       <c r="A142" s="1">
         <v>142</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -2739,7 +2924,7 @@
       <c r="A143" s="1">
         <v>143</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -2753,7 +2938,7 @@
       <c r="A144" s="1">
         <v>144</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -2767,7 +2952,7 @@
       <c r="A145" s="1">
         <v>145</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -2781,7 +2966,7 @@
       <c r="A146" s="1">
         <v>146</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -2795,7 +2980,7 @@
       <c r="A147" s="1">
         <v>147</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -2809,7 +2994,7 @@
       <c r="A148" s="1">
         <v>148</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -2823,7 +3008,7 @@
       <c r="A149" s="1">
         <v>149</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -2837,7 +3022,7 @@
       <c r="A150" s="1">
         <v>150</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -2851,7 +3036,7 @@
       <c r="A151" s="1">
         <v>151</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -2865,7 +3050,7 @@
       <c r="A152" s="1">
         <v>152</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -2879,7 +3064,7 @@
       <c r="A153" s="1">
         <v>153</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -2893,7 +3078,7 @@
       <c r="A154" s="1">
         <v>154</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -2907,7 +3092,7 @@
       <c r="A155" s="1">
         <v>155</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -2921,7 +3106,7 @@
       <c r="A156" s="1">
         <v>156</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -2935,7 +3120,7 @@
       <c r="A157" s="1">
         <v>157</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -2949,7 +3134,7 @@
       <c r="A158" s="1">
         <v>158</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -2963,7 +3148,7 @@
       <c r="A159" s="1">
         <v>159</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -2977,7 +3162,7 @@
       <c r="A160" s="1">
         <v>160</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -3002,7 +3187,7 @@
       <c r="A162" s="1">
         <v>162</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -3016,7 +3201,7 @@
       <c r="A163" s="1">
         <v>163</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -3030,7 +3215,7 @@
       <c r="A164" s="1">
         <v>164</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -3044,7 +3229,7 @@
       <c r="A165" s="1">
         <v>165</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -3058,7 +3243,7 @@
       <c r="A166" s="1">
         <v>166</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -3072,7 +3257,7 @@
       <c r="A167" s="1">
         <v>167</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -3089,7 +3274,7 @@
       <c r="A168" s="1">
         <v>168</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -3103,7 +3288,7 @@
       <c r="A169" s="1">
         <v>169</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -3125,13 +3310,13 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
+      <c r="A171" s="2">
         <v>171</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -3139,13 +3324,13 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
+      <c r="A172" s="2">
         <v>172</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -3153,13 +3338,13 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
+      <c r="A173" s="2">
         <v>173</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -3167,13 +3352,13 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
+      <c r="A174" s="2">
         <v>174</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -3181,13 +3366,13 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
+      <c r="A175" s="2">
         <v>175</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -3195,13 +3380,13 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
+      <c r="A176" s="2">
         <v>176</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -3209,13 +3394,13 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
+      <c r="A177" s="2">
         <v>177</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -3223,13 +3408,13 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
+      <c r="A178" s="2">
         <v>178</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -3237,13 +3422,13 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
+      <c r="A179" s="2">
         <v>179</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -3251,13 +3436,13 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
+      <c r="A180" s="2">
         <v>180</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D180" s="1" t="s">
@@ -3265,13 +3450,13 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
+      <c r="A181" s="2">
         <v>181</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -3279,13 +3464,13 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
+      <c r="A182" s="2">
         <v>182</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -3293,13 +3478,13 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
+      <c r="A183" s="2">
         <v>183</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -3307,13 +3492,13 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
+      <c r="A184" s="2">
         <v>184</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -3321,13 +3506,13 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
+      <c r="A185" s="2">
         <v>185</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -3335,13 +3520,13 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
+      <c r="A186" s="2">
         <v>186</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -3349,13 +3534,13 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
+      <c r="A187" s="2">
         <v>187</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -3363,13 +3548,13 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
+      <c r="A188" s="2">
         <v>188</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -3377,13 +3562,13 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
+      <c r="A189" s="2">
         <v>189</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -3391,13 +3576,13 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
+      <c r="A190" s="2">
         <v>190</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D190" s="1" t="s">
@@ -3405,13 +3590,13 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
+      <c r="A191" s="2">
         <v>191</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D191" s="1" t="s">
@@ -3419,13 +3604,13 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
+      <c r="A192" s="2">
         <v>192</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -3433,13 +3618,13 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
+      <c r="A193" s="2">
         <v>193</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D193" s="1" t="s">
@@ -3447,13 +3632,13 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
+      <c r="A194" s="2">
         <v>194</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D194" s="1" t="s">
@@ -3461,13 +3646,13 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
+      <c r="A195" s="2">
         <v>195</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D195" s="1" t="s">
@@ -3475,13 +3660,13 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
+      <c r="A196" s="2">
         <v>196</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -3489,13 +3674,13 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
+      <c r="A197" s="2">
         <v>197</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D197" s="1" t="s">
@@ -3503,13 +3688,13 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
+      <c r="A198" s="2">
         <v>198</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D198" s="1" t="s">
@@ -3517,13 +3702,13 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
+      <c r="A199" s="2">
         <v>199</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D199" s="1" t="s">
@@ -3531,13 +3716,13 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
+      <c r="A200" s="2">
         <v>200</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D200" s="1" t="s">
@@ -3545,13 +3730,13 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
+      <c r="A201" s="2">
         <v>201</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D201" s="1" t="s">
@@ -3559,13 +3744,13 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
+      <c r="A202" s="2">
         <v>202</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D202" s="1" t="s">
@@ -3573,13 +3758,13 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
+      <c r="A203" s="2">
         <v>203</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D203" s="1" t="s">
@@ -3587,13 +3772,13 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
+      <c r="A204" s="2">
         <v>204</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D204" s="1" t="s">
@@ -3601,13 +3786,13 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
+      <c r="A205" s="2">
         <v>205</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D205" s="1" t="s">
@@ -3615,13 +3800,13 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
+      <c r="A206" s="2">
         <v>206</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -3629,13 +3814,13 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
+      <c r="A207" s="2">
         <v>207</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D207" s="1" t="s">
@@ -3643,13 +3828,13 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
+      <c r="A208" s="2">
         <v>208</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D208" s="1" t="s">
@@ -3657,13 +3842,13 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
+      <c r="A209" s="2">
         <v>209</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C209" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D209" s="1" t="s">
@@ -3671,13 +3856,13 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
+      <c r="A210" s="2">
         <v>210</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D210" s="1" t="s">
@@ -3716,7 +3901,7 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4465,8 +4650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C99E74-2DC6-4D53-8052-70DB62DA5F38}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:D44"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5126,6 +5311,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
@@ -5142,14 +5335,1174 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328E899F-C965-41CD-B3DB-EF22983B0CF5}">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="40.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>131</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>132</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>133</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>134</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>135</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>136</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>137</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>138</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>139</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>140</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>141</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>142</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>143</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>144</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>145</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>146</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>147</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>148</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>149</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>150</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>151</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>152</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>153</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>154</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>155</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>156</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>157</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>158</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>159</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>160</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>162</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>163</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>164</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>165</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>166</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>167</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>168</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>169</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25356D54-50E4-4E34-9BDC-C5B9AC0A4AB1}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="34.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>171</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>172</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>173</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>174</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>175</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>176</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>177</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>178</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>179</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>180</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>181</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>182</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>183</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>184</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>185</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>186</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>187</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>188</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>189</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>190</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>191</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>192</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>193</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>194</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>195</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>196</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>197</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>198</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>199</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>200</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>201</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>202</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>203</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>204</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>205</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>206</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>207</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>208</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>209</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>210</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769CC26A-E4B7-499F-B0ED-82B83F247FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6A5C45-8897-4B75-9AB4-573EE7AD0D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Lighting-DIM" sheetId="4" r:id="rId3"/>
     <sheet name="Sensors" sheetId="5" r:id="rId4"/>
     <sheet name="AC" sheetId="6" r:id="rId5"/>
+    <sheet name="Gates" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="354">
   <si>
     <t>Kuchnia_barek</t>
   </si>
@@ -1064,6 +1065,33 @@
   </si>
   <si>
     <t>AC_020</t>
+  </si>
+  <si>
+    <t>Gate_001</t>
+  </si>
+  <si>
+    <t>Gate_002</t>
+  </si>
+  <si>
+    <t>Gate_003</t>
+  </si>
+  <si>
+    <t>Gate_004</t>
+  </si>
+  <si>
+    <t>Door_001</t>
+  </si>
+  <si>
+    <t>Door_002</t>
+  </si>
+  <si>
+    <t>Door_003</t>
+  </si>
+  <si>
+    <t>Door_004</t>
+  </si>
+  <si>
+    <t>TvLift</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1095,6 +1123,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,7 +1145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1119,10 +1153,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1407,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AB5750-FA9E-494B-BF4E-2646FF05F6F3}">
   <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F184" sqref="F184"/>
+    <sheetView topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,7 +2135,7 @@
       <c r="A62" s="1">
         <v>62</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -2109,7 +2149,7 @@
       <c r="A63" s="1">
         <v>63</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -2137,7 +2177,7 @@
       <c r="A65" s="1">
         <v>65</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -2148,7 +2188,7 @@
       <c r="A66" s="1">
         <v>66</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -2159,7 +2199,7 @@
       <c r="A67" s="1">
         <v>67</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2170,7 +2210,7 @@
       <c r="A68" s="1">
         <v>68</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2217,7 +2257,7 @@
       <c r="A72" s="1">
         <v>72</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -3176,7 +3216,7 @@
       <c r="A161" s="1">
         <v>161</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="6" t="s">
         <v>150</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -3302,7 +3342,7 @@
       <c r="A170" s="1">
         <v>170</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="6" t="s">
         <v>150</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -3310,13 +3350,13 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
+      <c r="A171" s="4">
         <v>171</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -3324,13 +3364,13 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
+      <c r="A172" s="4">
         <v>172</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -3338,13 +3378,13 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
+      <c r="A173" s="4">
         <v>173</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -3352,13 +3392,13 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
+      <c r="A174" s="4">
         <v>174</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -3366,13 +3406,13 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
+      <c r="A175" s="4">
         <v>175</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -3380,13 +3420,13 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
+      <c r="A176" s="4">
         <v>176</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -3394,13 +3434,13 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
+      <c r="A177" s="4">
         <v>177</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -3408,13 +3448,13 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
+      <c r="A178" s="4">
         <v>178</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -3422,13 +3462,13 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
+      <c r="A179" s="4">
         <v>179</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -3436,13 +3476,13 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
+      <c r="A180" s="4">
         <v>180</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D180" s="1" t="s">
@@ -3450,13 +3490,13 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
+      <c r="A181" s="4">
         <v>181</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -3464,13 +3504,13 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
+      <c r="A182" s="4">
         <v>182</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -3478,13 +3518,13 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
+      <c r="A183" s="4">
         <v>183</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -3492,13 +3532,13 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
+      <c r="A184" s="4">
         <v>184</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -3506,13 +3546,13 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
+      <c r="A185" s="4">
         <v>185</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -3520,13 +3560,13 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
+      <c r="A186" s="4">
         <v>186</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -3534,13 +3574,13 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
+      <c r="A187" s="4">
         <v>187</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -3548,13 +3588,13 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
+      <c r="A188" s="4">
         <v>188</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -3562,13 +3602,13 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
+      <c r="A189" s="4">
         <v>189</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -3576,13 +3616,13 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
+      <c r="A190" s="4">
         <v>190</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D190" s="1" t="s">
@@ -3590,13 +3630,13 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
+      <c r="A191" s="4">
         <v>191</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D191" s="1" t="s">
@@ -3604,13 +3644,13 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
+      <c r="A192" s="4">
         <v>192</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -3618,13 +3658,13 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
+      <c r="A193" s="4">
         <v>193</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D193" s="1" t="s">
@@ -3632,13 +3672,13 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
+      <c r="A194" s="4">
         <v>194</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D194" s="1" t="s">
@@ -3646,13 +3686,13 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
+      <c r="A195" s="4">
         <v>195</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D195" s="1" t="s">
@@ -3660,13 +3700,13 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
+      <c r="A196" s="4">
         <v>196</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -3674,13 +3714,13 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
+      <c r="A197" s="4">
         <v>197</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D197" s="1" t="s">
@@ -3688,13 +3728,13 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
+      <c r="A198" s="4">
         <v>198</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D198" s="1" t="s">
@@ -3702,13 +3742,13 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
+      <c r="A199" s="4">
         <v>199</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D199" s="1" t="s">
@@ -3716,13 +3756,13 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
+      <c r="A200" s="4">
         <v>200</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D200" s="1" t="s">
@@ -3730,13 +3770,13 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
+      <c r="A201" s="4">
         <v>201</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D201" s="1" t="s">
@@ -3744,13 +3784,13 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
+      <c r="A202" s="4">
         <v>202</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D202" s="1" t="s">
@@ -3758,13 +3798,13 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
+      <c r="A203" s="4">
         <v>203</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D203" s="1" t="s">
@@ -3772,13 +3812,13 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
+      <c r="A204" s="4">
         <v>204</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D204" s="1" t="s">
@@ -3786,13 +3826,13 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
+      <c r="A205" s="4">
         <v>205</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D205" s="1" t="s">
@@ -3800,13 +3840,13 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
+      <c r="A206" s="4">
         <v>206</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -3814,13 +3854,13 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
+      <c r="A207" s="4">
         <v>207</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D207" s="1" t="s">
@@ -3828,13 +3868,13 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
+      <c r="A208" s="4">
         <v>208</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D208" s="1" t="s">
@@ -3842,13 +3882,13 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
+      <c r="A209" s="4">
         <v>209</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D209" s="1" t="s">
@@ -3856,13 +3896,13 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
+      <c r="A210" s="4">
         <v>210</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D210" s="1" t="s">
@@ -3900,8 +3940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0896514F-BA47-4116-910D-622420A11612}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3931,10 +3971,10 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3942,10 +3982,10 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3953,10 +3993,10 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3964,10 +4004,10 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3975,10 +4015,10 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3986,10 +4026,10 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3997,10 +4037,10 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4008,10 +4048,10 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4019,10 +4059,10 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4030,10 +4070,10 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4041,10 +4081,10 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4052,10 +4092,10 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4063,10 +4103,10 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4074,10 +4114,10 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4085,10 +4125,10 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4096,10 +4136,10 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4107,10 +4147,10 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4118,10 +4158,10 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4129,10 +4169,10 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4140,10 +4180,10 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4151,10 +4191,10 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4162,10 +4202,10 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4173,10 +4213,10 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4184,10 +4224,10 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>228</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -4198,10 +4238,10 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4209,10 +4249,10 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4220,10 +4260,10 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4231,10 +4271,10 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4242,10 +4282,10 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4253,10 +4293,10 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4264,10 +4304,10 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4275,10 +4315,10 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4286,10 +4326,10 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4297,10 +4337,10 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4308,10 +4348,10 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4319,10 +4359,10 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4330,10 +4370,10 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4341,10 +4381,10 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4352,10 +4392,10 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>243</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4366,10 +4406,10 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4377,10 +4417,10 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="4" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4388,10 +4428,10 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4399,10 +4439,10 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4410,10 +4450,10 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="4" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4421,10 +4461,10 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4432,10 +4472,10 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="4" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4443,10 +4483,10 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4454,10 +4494,10 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="4" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4465,10 +4505,10 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="4" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4476,10 +4516,10 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="4" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4487,10 +4527,10 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="4" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4498,10 +4538,10 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="4" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4509,10 +4549,10 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="4" t="s">
         <v>257</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -4523,10 +4563,10 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="4" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4534,10 +4574,10 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="4" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4545,10 +4585,10 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="4" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4556,10 +4596,10 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="4" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4567,10 +4607,10 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="4" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4578,10 +4618,10 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="4" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4589,10 +4629,10 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="4" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4600,10 +4640,10 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="4" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4611,10 +4651,10 @@
       <c r="A64" s="1">
         <v>69</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4622,10 +4662,10 @@
       <c r="A65" s="1">
         <v>70</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="4" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4633,10 +4673,10 @@
       <c r="A66" s="1">
         <v>71</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="4" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4651,7 +4691,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4683,13 +4723,13 @@
       <c r="A3" s="1">
         <v>81</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4697,25 +4737,25 @@
       <c r="A4" s="1">
         <v>82</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>83</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4723,25 +4763,25 @@
       <c r="A6" s="1">
         <v>84</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>85</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4749,25 +4789,25 @@
       <c r="A8" s="1">
         <v>86</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>87</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>275</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4775,25 +4815,25 @@
       <c r="A10" s="1">
         <v>88</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>89</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4801,25 +4841,25 @@
       <c r="A12" s="1">
         <v>90</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>91</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4827,25 +4867,25 @@
       <c r="A14" s="1">
         <v>92</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>93</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4853,25 +4893,25 @@
       <c r="A16" s="1">
         <v>94</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>95</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>212</v>
       </c>
       <c r="E17" t="s">
@@ -4882,25 +4922,25 @@
       <c r="A18" s="1">
         <v>96</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>97</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4908,25 +4948,25 @@
       <c r="A20" s="1">
         <v>98</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>99</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4934,25 +4974,25 @@
       <c r="A22" s="1">
         <v>100</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>101</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4960,25 +5000,25 @@
       <c r="A24" s="1">
         <v>102</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>103</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4986,25 +5026,25 @@
       <c r="A26" s="1">
         <v>104</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>105</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5012,25 +5052,25 @@
       <c r="A28" s="1">
         <v>106</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>107</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5038,25 +5078,25 @@
       <c r="A30" s="1">
         <v>108</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>109</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5064,25 +5104,25 @@
       <c r="A32" s="1">
         <v>110</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>111</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="5" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5090,25 +5130,25 @@
       <c r="A34" s="1">
         <v>112</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>113</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="5" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5116,25 +5156,25 @@
       <c r="A36" s="1">
         <v>114</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>115</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="5" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5142,25 +5182,25 @@
       <c r="A38" s="1">
         <v>116</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>117</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>277</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="5" t="s">
         <v>223</v>
       </c>
       <c r="E39" t="s">
@@ -5171,25 +5211,25 @@
       <c r="A40" s="1">
         <v>118</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>278</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>119</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="5" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5197,25 +5237,25 @@
       <c r="A42" s="1">
         <v>120</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>121</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5223,25 +5263,25 @@
       <c r="A44" s="1">
         <v>122</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>123</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5249,25 +5289,25 @@
       <c r="A46" s="1">
         <v>124</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>125</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5275,25 +5315,25 @@
       <c r="A48" s="1">
         <v>126</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>127</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5301,24 +5341,16 @@
       <c r="A50" s="1">
         <v>128</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D50" s="3"/>
+      <c r="D50" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
@@ -5335,6 +5367,14 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5935,7 +5975,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B42"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5971,7 +6011,7 @@
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>325</v>
       </c>
     </row>
@@ -5985,7 +6025,7 @@
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -5997,7 +6037,7 @@
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>326</v>
       </c>
     </row>
@@ -6011,7 +6051,7 @@
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -6023,7 +6063,7 @@
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6037,7 +6077,7 @@
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -6049,7 +6089,7 @@
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6063,7 +6103,7 @@
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -6075,7 +6115,7 @@
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6089,7 +6129,7 @@
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -6101,7 +6141,7 @@
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6115,7 +6155,7 @@
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -6127,7 +6167,7 @@
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6141,7 +6181,7 @@
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -6153,7 +6193,7 @@
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>332</v>
       </c>
     </row>
@@ -6167,7 +6207,7 @@
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -6179,7 +6219,7 @@
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>333</v>
       </c>
     </row>
@@ -6193,7 +6233,7 @@
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -6205,7 +6245,7 @@
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6219,7 +6259,7 @@
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -6231,7 +6271,7 @@
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6245,7 +6285,7 @@
       <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -6257,7 +6297,7 @@
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6271,7 +6311,7 @@
       <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -6283,7 +6323,7 @@
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6297,7 +6337,7 @@
       <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -6309,7 +6349,7 @@
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -6323,7 +6363,7 @@
       <c r="C30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -6335,7 +6375,7 @@
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6349,7 +6389,7 @@
       <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -6361,7 +6401,7 @@
       <c r="C33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6375,7 +6415,7 @@
       <c r="C34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -6387,7 +6427,7 @@
       <c r="C35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6401,7 +6441,7 @@
       <c r="C36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -6413,7 +6453,7 @@
       <c r="C37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6427,7 +6467,7 @@
       <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -6439,7 +6479,7 @@
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>343</v>
       </c>
     </row>
@@ -6453,7 +6493,7 @@
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -6465,7 +6505,7 @@
       <c r="C41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6479,10 +6519,22 @@
       <c r="C42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D27:D28"/>
@@ -6491,20 +6543,175 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AF4B9D-E8DD-4B97-A4B3-5993D1FD406D}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>161</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>170</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6A5C45-8897-4B75-9AB4-573EE7AD0D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1BBF95-51AF-4958-B0C5-85BFC9B9F9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="2" r:id="rId1"/>
@@ -1098,7 +1098,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1108,6 +1108,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1153,16 +1159,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1447,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AB5750-FA9E-494B-BF4E-2646FF05F6F3}">
   <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="F167" sqref="F167"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3216,7 +3222,7 @@
       <c r="A161" s="1">
         <v>161</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -3342,7 +3348,7 @@
       <c r="A170" s="1">
         <v>170</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -3350,13 +3356,13 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="4">
+      <c r="A171" s="1">
         <v>171</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -3364,13 +3370,13 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="4">
+      <c r="A172" s="1">
         <v>172</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C172" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -3378,13 +3384,13 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="4">
+      <c r="A173" s="1">
         <v>173</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -3392,13 +3398,13 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="4">
+      <c r="A174" s="1">
         <v>174</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -3406,13 +3412,13 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="4">
+      <c r="A175" s="1">
         <v>175</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -3420,13 +3426,13 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="4">
+      <c r="A176" s="1">
         <v>176</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -3434,13 +3440,13 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="4">
+      <c r="A177" s="1">
         <v>177</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -3448,13 +3454,13 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="4">
+      <c r="A178" s="1">
         <v>178</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -3462,13 +3468,13 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="4">
+      <c r="A179" s="1">
         <v>179</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -3476,13 +3482,13 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="4">
+      <c r="A180" s="1">
         <v>180</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C180" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D180" s="1" t="s">
@@ -3490,13 +3496,13 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="4">
+      <c r="A181" s="1">
         <v>181</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -3504,13 +3510,13 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="4">
+      <c r="A182" s="1">
         <v>182</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -3518,13 +3524,13 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="4">
+      <c r="A183" s="1">
         <v>183</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -3532,13 +3538,13 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="4">
+      <c r="A184" s="1">
         <v>184</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -3546,13 +3552,13 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="4">
+      <c r="A185" s="1">
         <v>185</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C185" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -3560,13 +3566,13 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="4">
+      <c r="A186" s="1">
         <v>186</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C186" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -3574,13 +3580,13 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="4">
+      <c r="A187" s="1">
         <v>187</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C187" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -3588,13 +3594,13 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="4">
+      <c r="A188" s="1">
         <v>188</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C188" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -3602,13 +3608,13 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="4">
+      <c r="A189" s="1">
         <v>189</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C189" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -3616,13 +3622,13 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="4">
+      <c r="A190" s="1">
         <v>190</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C190" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D190" s="1" t="s">
@@ -3630,13 +3636,13 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="4">
+      <c r="A191" s="1">
         <v>191</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D191" s="1" t="s">
@@ -3644,13 +3650,13 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="4">
+      <c r="A192" s="1">
         <v>192</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C192" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -3658,13 +3664,13 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="4">
+      <c r="A193" s="1">
         <v>193</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C193" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D193" s="1" t="s">
@@ -3672,13 +3678,13 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="4">
+      <c r="A194" s="1">
         <v>194</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C194" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D194" s="1" t="s">
@@ -3686,13 +3692,13 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="4">
+      <c r="A195" s="1">
         <v>195</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C195" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D195" s="1" t="s">
@@ -3700,13 +3706,13 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="4">
+      <c r="A196" s="1">
         <v>196</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C196" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -3714,13 +3720,13 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="4">
+      <c r="A197" s="1">
         <v>197</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C197" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D197" s="1" t="s">
@@ -3728,13 +3734,13 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="4">
+      <c r="A198" s="1">
         <v>198</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="C198" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D198" s="1" t="s">
@@ -3742,13 +3748,13 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="4">
+      <c r="A199" s="1">
         <v>199</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C199" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D199" s="1" t="s">
@@ -3756,13 +3762,13 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="4">
+      <c r="A200" s="1">
         <v>200</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="C200" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D200" s="1" t="s">
@@ -3770,13 +3776,13 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="4">
+      <c r="A201" s="1">
         <v>201</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C201" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D201" s="1" t="s">
@@ -3784,13 +3790,13 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="4">
+      <c r="A202" s="1">
         <v>202</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C202" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D202" s="1" t="s">
@@ -3798,13 +3804,13 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="4">
+      <c r="A203" s="1">
         <v>203</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C203" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D203" s="1" t="s">
@@ -3812,13 +3818,13 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="4">
+      <c r="A204" s="1">
         <v>204</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D204" s="1" t="s">
@@ -3826,13 +3832,13 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="4">
+      <c r="A205" s="1">
         <v>205</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D205" s="1" t="s">
@@ -3840,13 +3846,13 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="4">
+      <c r="A206" s="1">
         <v>206</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C206" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -3854,13 +3860,13 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="4">
+      <c r="A207" s="1">
         <v>207</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C207" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D207" s="1" t="s">
@@ -3868,13 +3874,13 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="4">
+      <c r="A208" s="1">
         <v>208</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D208" s="1" t="s">
@@ -3882,13 +3888,13 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="4">
+      <c r="A209" s="1">
         <v>209</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D209" s="1" t="s">
@@ -3896,13 +3902,13 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="4">
+      <c r="A210" s="1">
         <v>210</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C210" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D210" s="1" t="s">
@@ -3913,7 +3919,7 @@
       <c r="A249" s="1">
         <v>249</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" s="6" t="s">
         <v>193</v>
       </c>
       <c r="C249" s="1" t="s">
@@ -3924,7 +3930,7 @@
       <c r="A250" s="1">
         <v>250</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" s="6" t="s">
         <v>194</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -3940,7 +3946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0896514F-BA47-4116-910D-622420A11612}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3974,7 +3980,7 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3985,7 +3991,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3996,7 +4002,7 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4007,7 +4013,7 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4018,7 +4024,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4029,7 +4035,7 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4040,7 +4046,7 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4051,7 +4057,7 @@
       <c r="B10" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4062,7 +4068,7 @@
       <c r="B11" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4073,7 +4079,7 @@
       <c r="B12" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4084,7 +4090,7 @@
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4095,7 +4101,7 @@
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4106,7 +4112,7 @@
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4117,7 +4123,7 @@
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4128,7 +4134,7 @@
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4139,7 +4145,7 @@
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4150,7 +4156,7 @@
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4161,7 +4167,7 @@
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4172,7 +4178,7 @@
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4183,7 +4189,7 @@
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4194,7 +4200,7 @@
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4205,7 +4211,7 @@
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4216,7 +4222,7 @@
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4227,7 +4233,7 @@
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>228</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -4241,7 +4247,7 @@
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4252,7 +4258,7 @@
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4263,7 +4269,7 @@
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4274,7 +4280,7 @@
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4285,7 +4291,7 @@
       <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4296,7 +4302,7 @@
       <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="1" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4307,7 +4313,7 @@
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4318,7 +4324,7 @@
       <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4329,7 +4335,7 @@
       <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="1" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4340,7 +4346,7 @@
       <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="1" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4351,7 +4357,7 @@
       <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4362,7 +4368,7 @@
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="1" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4373,7 +4379,7 @@
       <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="1" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4384,7 +4390,7 @@
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="1" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4395,7 +4401,7 @@
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4409,7 +4415,7 @@
       <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="1" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4420,7 +4426,7 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="1" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4431,7 +4437,7 @@
       <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="1" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4442,7 +4448,7 @@
       <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="1" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4453,7 +4459,7 @@
       <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="1" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4464,7 +4470,7 @@
       <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="1" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4475,7 +4481,7 @@
       <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="1" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4486,7 +4492,7 @@
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4497,7 +4503,7 @@
       <c r="B50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="1" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4508,7 +4514,7 @@
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="1" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4519,7 +4525,7 @@
       <c r="B52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4530,7 +4536,7 @@
       <c r="B53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4541,7 +4547,7 @@
       <c r="B54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="1" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4552,7 +4558,7 @@
       <c r="B55" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="1" t="s">
         <v>257</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -4566,7 +4572,7 @@
       <c r="B56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="1" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4577,7 +4583,7 @@
       <c r="B57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="1" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4588,7 +4594,7 @@
       <c r="B58" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="1" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4599,7 +4605,7 @@
       <c r="B59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="1" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4610,7 +4616,7 @@
       <c r="B60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="1" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4621,7 +4627,7 @@
       <c r="B61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="1" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4632,7 +4638,7 @@
       <c r="B62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="1" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4643,7 +4649,7 @@
       <c r="B63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="1" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4654,7 +4660,7 @@
       <c r="B64" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="1" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4665,7 +4671,7 @@
       <c r="B65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="1" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4676,7 +4682,7 @@
       <c r="B66" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="1" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4729,7 +4735,7 @@
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4743,7 +4749,7 @@
       <c r="C4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -4755,7 +4761,7 @@
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4769,7 +4775,7 @@
       <c r="C6" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -4781,7 +4787,7 @@
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4795,7 +4801,7 @@
       <c r="C8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -4807,7 +4813,7 @@
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4821,7 +4827,7 @@
       <c r="C10" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -4833,7 +4839,7 @@
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4847,7 +4853,7 @@
       <c r="C12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -4859,7 +4865,7 @@
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4873,7 +4879,7 @@
       <c r="C14" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -4885,7 +4891,7 @@
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4899,7 +4905,7 @@
       <c r="C16" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -4911,7 +4917,7 @@
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>212</v>
       </c>
       <c r="E17" t="s">
@@ -4928,7 +4934,7 @@
       <c r="C18" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -4940,7 +4946,7 @@
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4954,7 +4960,7 @@
       <c r="C20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -4966,7 +4972,7 @@
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4980,7 +4986,7 @@
       <c r="C22" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -4992,7 +4998,7 @@
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5006,7 +5012,7 @@
       <c r="C24" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -5018,7 +5024,7 @@
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5032,7 +5038,7 @@
       <c r="C26" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -5044,7 +5050,7 @@
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5058,7 +5064,7 @@
       <c r="C28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -5070,7 +5076,7 @@
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5084,7 +5090,7 @@
       <c r="C30" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -5096,7 +5102,7 @@
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5110,7 +5116,7 @@
       <c r="C32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -5122,7 +5128,7 @@
       <c r="C33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5136,7 +5142,7 @@
       <c r="C34" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -5148,7 +5154,7 @@
       <c r="C35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5162,7 +5168,7 @@
       <c r="C36" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -5174,7 +5180,7 @@
       <c r="C37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5188,7 +5194,7 @@
       <c r="C38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -5200,7 +5206,7 @@
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>223</v>
       </c>
       <c r="E39" t="s">
@@ -5217,7 +5223,7 @@
       <c r="C40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -5229,7 +5235,7 @@
       <c r="C41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5243,7 +5249,7 @@
       <c r="C42" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -5255,7 +5261,7 @@
       <c r="C43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5269,7 +5275,7 @@
       <c r="C44" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -5281,7 +5287,7 @@
       <c r="C45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5295,7 +5301,7 @@
       <c r="C46" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -5307,7 +5313,7 @@
       <c r="C47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5321,7 +5327,7 @@
       <c r="C48" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -5333,7 +5339,7 @@
       <c r="C49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5347,10 +5353,18 @@
       <c r="C50" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D50" s="5"/>
+      <c r="D50" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
@@ -5367,14 +5381,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5385,8 +5391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328E899F-C965-41CD-B3DB-EF22983B0CF5}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5974,8 +5980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25356D54-50E4-4E34-9BDC-C5B9AC0A4AB1}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6011,7 +6017,7 @@
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>325</v>
       </c>
     </row>
@@ -6025,7 +6031,7 @@
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -6037,7 +6043,7 @@
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>326</v>
       </c>
     </row>
@@ -6051,7 +6057,7 @@
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -6063,7 +6069,7 @@
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6077,7 +6083,7 @@
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -6089,7 +6095,7 @@
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6103,7 +6109,7 @@
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -6115,7 +6121,7 @@
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6129,7 +6135,7 @@
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -6141,7 +6147,7 @@
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6155,7 +6161,7 @@
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -6167,7 +6173,7 @@
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6181,7 +6187,7 @@
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -6193,7 +6199,7 @@
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>332</v>
       </c>
     </row>
@@ -6207,7 +6213,7 @@
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -6219,7 +6225,7 @@
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>333</v>
       </c>
     </row>
@@ -6233,7 +6239,7 @@
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -6245,7 +6251,7 @@
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6259,7 +6265,7 @@
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -6271,7 +6277,7 @@
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6285,7 +6291,7 @@
       <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -6297,7 +6303,7 @@
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6311,7 +6317,7 @@
       <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -6323,7 +6329,7 @@
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6337,7 +6343,7 @@
       <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -6349,7 +6355,7 @@
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>338</v>
       </c>
     </row>
@@ -6363,7 +6369,7 @@
       <c r="C30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -6375,7 +6381,7 @@
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6389,7 +6395,7 @@
       <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -6401,7 +6407,7 @@
       <c r="C33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6415,7 +6421,7 @@
       <c r="C34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -6427,7 +6433,7 @@
       <c r="C35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="5" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6441,7 +6447,7 @@
       <c r="C36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -6453,7 +6459,7 @@
       <c r="C37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6467,7 +6473,7 @@
       <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -6479,7 +6485,7 @@
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>343</v>
       </c>
     </row>
@@ -6493,7 +6499,7 @@
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -6505,7 +6511,7 @@
       <c r="C41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="5" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6519,10 +6525,18 @@
       <c r="C42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
@@ -6535,14 +6549,6 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6686,7 +6692,7 @@
       <c r="A10" s="1">
         <v>161</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -6700,7 +6706,7 @@
       <c r="A11" s="1">
         <v>170</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C11" s="1" t="s">

--- a/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1BBF95-51AF-4958-B0C5-85BFC9B9F9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D79026-0D12-40DF-A294-6AE969F2AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="2" r:id="rId1"/>
@@ -1119,7 +1119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1135,6 +1135,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,13 +1168,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1453,7 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AB5750-FA9E-494B-BF4E-2646FF05F6F3}">
   <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
@@ -3919,7 +3925,7 @@
       <c r="A249" s="1">
         <v>249</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="B249" s="4" t="s">
         <v>193</v>
       </c>
       <c r="C249" s="1" t="s">
@@ -3930,7 +3936,7 @@
       <c r="A250" s="1">
         <v>250</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B250" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -3946,8 +3952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0896514F-BA47-4116-910D-622420A11612}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3980,7 +3986,7 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3991,7 +3997,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4002,7 +4008,7 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4013,7 +4019,7 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4024,7 +4030,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4035,7 +4041,7 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4046,7 +4052,7 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4057,7 +4063,7 @@
       <c r="B10" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4068,7 +4074,7 @@
       <c r="B11" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4079,7 +4085,7 @@
       <c r="B12" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4090,7 +4096,7 @@
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4101,7 +4107,7 @@
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4112,7 +4118,7 @@
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4123,7 +4129,7 @@
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4134,7 +4140,7 @@
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4145,7 +4151,7 @@
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4156,7 +4162,7 @@
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4167,7 +4173,7 @@
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4178,7 +4184,7 @@
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4189,7 +4195,7 @@
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4200,7 +4206,7 @@
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4211,7 +4217,7 @@
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4222,7 +4228,7 @@
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4233,7 +4239,7 @@
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>228</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -4247,7 +4253,7 @@
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4258,7 +4264,7 @@
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4269,7 +4275,7 @@
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4280,7 +4286,7 @@
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4291,7 +4297,7 @@
       <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4302,7 +4308,7 @@
       <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4313,7 +4319,7 @@
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4324,7 +4330,7 @@
       <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4335,7 +4341,7 @@
       <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4346,7 +4352,7 @@
       <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4357,7 +4363,7 @@
       <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4368,7 +4374,7 @@
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4379,7 +4385,7 @@
       <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4390,7 +4396,7 @@
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4401,7 +4407,7 @@
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="5" t="s">
         <v>243</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4415,7 +4421,7 @@
       <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="5" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4426,7 +4432,7 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="5" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4437,7 +4443,7 @@
       <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4448,7 +4454,7 @@
       <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4459,7 +4465,7 @@
       <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="5" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4470,7 +4476,7 @@
       <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4481,7 +4487,7 @@
       <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4492,7 +4498,7 @@
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="5" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4503,7 +4509,7 @@
       <c r="B50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="5" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4514,7 +4520,7 @@
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4525,7 +4531,7 @@
       <c r="B52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="5" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4536,7 +4542,7 @@
       <c r="B53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="5" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4547,7 +4553,7 @@
       <c r="B54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4558,7 +4564,7 @@
       <c r="B55" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="5" t="s">
         <v>257</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -4572,7 +4578,7 @@
       <c r="B56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="5" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4583,7 +4589,7 @@
       <c r="B57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="5" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4594,7 +4600,7 @@
       <c r="B58" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="5" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4605,7 +4611,7 @@
       <c r="B59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="5" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4616,7 +4622,7 @@
       <c r="B60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="5" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4627,7 +4633,7 @@
       <c r="B61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="5" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4638,7 +4644,7 @@
       <c r="B62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="5" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4649,7 +4655,7 @@
       <c r="B63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="5" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4660,7 +4666,7 @@
       <c r="B64" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="5" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4671,7 +4677,7 @@
       <c r="B65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="5" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4682,7 +4688,7 @@
       <c r="B66" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="5" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4696,14 +4702,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C99E74-2DC6-4D53-8052-70DB62DA5F38}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="46.85546875" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
@@ -4735,7 +4741,7 @@
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4749,7 +4755,7 @@
       <c r="C4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -4761,7 +4767,7 @@
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4775,7 +4781,7 @@
       <c r="C6" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -4787,7 +4793,7 @@
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4801,7 +4807,7 @@
       <c r="C8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -4813,7 +4819,7 @@
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4827,7 +4833,7 @@
       <c r="C10" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -4839,7 +4845,7 @@
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4853,7 +4859,7 @@
       <c r="C12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -4865,7 +4871,7 @@
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4879,7 +4885,7 @@
       <c r="C14" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -4891,7 +4897,7 @@
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4905,7 +4911,7 @@
       <c r="C16" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -4917,7 +4923,7 @@
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>212</v>
       </c>
       <c r="E17" t="s">
@@ -4934,7 +4940,7 @@
       <c r="C18" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -4946,7 +4952,7 @@
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="6" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4960,7 +4966,7 @@
       <c r="C20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -4972,7 +4978,7 @@
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4986,7 +4992,7 @@
       <c r="C22" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -4998,7 +5004,7 @@
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="6" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5012,7 +5018,7 @@
       <c r="C24" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -5024,7 +5030,7 @@
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="6" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5038,7 +5044,7 @@
       <c r="C26" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -5050,7 +5056,7 @@
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="6" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5064,7 +5070,7 @@
       <c r="C28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -5076,7 +5082,7 @@
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5090,7 +5096,7 @@
       <c r="C30" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -5102,7 +5108,7 @@
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5116,7 +5122,7 @@
       <c r="C32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -5128,7 +5134,7 @@
       <c r="C33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="6" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5142,7 +5148,7 @@
       <c r="C34" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -5154,7 +5160,7 @@
       <c r="C35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="6" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5168,7 +5174,7 @@
       <c r="C36" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -5180,7 +5186,7 @@
       <c r="C37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="6" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5194,7 +5200,7 @@
       <c r="C38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -5206,7 +5212,7 @@
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="6" t="s">
         <v>223</v>
       </c>
       <c r="E39" t="s">
@@ -5223,7 +5229,7 @@
       <c r="C40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -5235,7 +5241,7 @@
       <c r="C41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5249,7 +5255,7 @@
       <c r="C42" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -5261,7 +5267,7 @@
       <c r="C43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="6" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5275,7 +5281,7 @@
       <c r="C44" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -5287,7 +5293,7 @@
       <c r="C45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="6" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5301,7 +5307,7 @@
       <c r="C46" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -5313,7 +5319,7 @@
       <c r="C47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5327,7 +5333,7 @@
       <c r="C48" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -5339,7 +5345,7 @@
       <c r="C49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5353,18 +5359,10 @@
       <c r="C50" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
@@ -5381,6 +5379,14 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5392,15 +5398,15 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="40.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -5428,7 +5434,7 @@
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>285</v>
       </c>
     </row>
@@ -5442,7 +5448,7 @@
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>289</v>
       </c>
     </row>
@@ -5456,7 +5462,7 @@
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5470,7 +5476,7 @@
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5484,7 +5490,7 @@
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5498,7 +5504,7 @@
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5512,7 +5518,7 @@
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5526,7 +5532,7 @@
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>295</v>
       </c>
     </row>
@@ -5540,7 +5546,7 @@
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>296</v>
       </c>
     </row>
@@ -5554,7 +5560,7 @@
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5568,7 +5574,7 @@
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5582,7 +5588,7 @@
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>299</v>
       </c>
     </row>
@@ -5596,7 +5602,7 @@
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>300</v>
       </c>
     </row>
@@ -5610,7 +5616,7 @@
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -5624,7 +5630,7 @@
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5638,7 +5644,7 @@
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5652,7 +5658,7 @@
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5666,7 +5672,7 @@
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5680,7 +5686,7 @@
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5694,7 +5700,7 @@
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>307</v>
       </c>
     </row>
@@ -5708,7 +5714,7 @@
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5722,7 +5728,7 @@
       <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5736,7 +5742,7 @@
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5750,7 +5756,7 @@
       <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5764,7 +5770,7 @@
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>311</v>
       </c>
     </row>
@@ -5778,7 +5784,7 @@
       <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -5792,7 +5798,7 @@
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>313</v>
       </c>
     </row>
@@ -5806,7 +5812,7 @@
       <c r="C30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="5" t="s">
         <v>314</v>
       </c>
     </row>
@@ -5820,7 +5826,7 @@
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="5" t="s">
         <v>315</v>
       </c>
     </row>
@@ -5834,7 +5840,7 @@
       <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="5" t="s">
         <v>316</v>
       </c>
     </row>
@@ -5848,7 +5854,7 @@
       <c r="C33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="5" t="s">
         <v>317</v>
       </c>
     </row>
@@ -5862,7 +5868,7 @@
       <c r="C34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="5" t="s">
         <v>318</v>
       </c>
     </row>
@@ -5876,7 +5882,7 @@
       <c r="C35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5890,7 +5896,7 @@
       <c r="C36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>319</v>
       </c>
     </row>
@@ -5904,7 +5910,7 @@
       <c r="C37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>320</v>
       </c>
     </row>
@@ -5918,7 +5924,7 @@
       <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5932,7 +5938,7 @@
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>323</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -5949,7 +5955,7 @@
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>324</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -5966,7 +5972,7 @@
       <c r="C41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5980,8 +5986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25356D54-50E4-4E34-9BDC-C5B9AC0A4AB1}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5989,7 +5995,7 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="34.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -6017,7 +6023,7 @@
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>325</v>
       </c>
     </row>
@@ -6031,7 +6037,7 @@
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -6043,7 +6049,7 @@
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>326</v>
       </c>
     </row>
@@ -6057,7 +6063,7 @@
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -6069,7 +6075,7 @@
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6083,7 +6089,7 @@
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -6095,7 +6101,7 @@
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6109,7 +6115,7 @@
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -6121,7 +6127,7 @@
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6135,7 +6141,7 @@
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -6147,7 +6153,7 @@
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6161,7 +6167,7 @@
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -6173,7 +6179,7 @@
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6187,7 +6193,7 @@
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -6199,7 +6205,7 @@
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>332</v>
       </c>
     </row>
@@ -6213,7 +6219,7 @@
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -6225,7 +6231,7 @@
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="6" t="s">
         <v>333</v>
       </c>
     </row>
@@ -6239,7 +6245,7 @@
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -6251,7 +6257,7 @@
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6265,7 +6271,7 @@
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -6277,7 +6283,7 @@
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="6" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6291,7 +6297,7 @@
       <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -6303,7 +6309,7 @@
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="6" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6317,7 +6323,7 @@
       <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -6329,7 +6335,7 @@
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="6" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6343,7 +6349,7 @@
       <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -6355,7 +6361,7 @@
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>338</v>
       </c>
     </row>
@@ -6369,7 +6375,7 @@
       <c r="C30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -6381,7 +6387,7 @@
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="6" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6395,7 +6401,7 @@
       <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -6407,7 +6413,7 @@
       <c r="C33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="6" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6421,7 +6427,7 @@
       <c r="C34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -6433,7 +6439,7 @@
       <c r="C35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="6" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6447,7 +6453,7 @@
       <c r="C36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -6459,7 +6465,7 @@
       <c r="C37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="6" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6473,7 +6479,7 @@
       <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -6485,7 +6491,7 @@
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="6" t="s">
         <v>343</v>
       </c>
     </row>
@@ -6499,7 +6505,7 @@
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -6511,7 +6517,7 @@
       <c r="C41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="6" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6525,18 +6531,10 @@
       <c r="C42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
@@ -6549,6 +6547,14 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6559,8 +6565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AF4B9D-E8DD-4B97-A4B3-5993D1FD406D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6568,7 +6574,7 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -6600,7 +6606,7 @@
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6614,7 +6620,7 @@
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6628,7 +6634,7 @@
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>346</v>
       </c>
     </row>
@@ -6642,7 +6648,7 @@
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>347</v>
       </c>
     </row>
@@ -6656,7 +6662,7 @@
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>348</v>
       </c>
     </row>
@@ -6670,7 +6676,7 @@
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>349</v>
       </c>
     </row>
@@ -6684,7 +6690,7 @@
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>350</v>
       </c>
     </row>

--- a/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D79026-0D12-40DF-A294-6AE969F2AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A021BB5E-65A7-43E1-A9AC-FC69B7D5E9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="361">
   <si>
     <t>Kuchnia_barek</t>
   </si>
@@ -1092,13 +1092,34 @@
   </si>
   <si>
     <t>TvLift</t>
+  </si>
+  <si>
+    <t>Garderoba_SOLO_Cool</t>
+  </si>
+  <si>
+    <t>Garderoba_SOLO_Heat</t>
+  </si>
+  <si>
+    <t>sprawdzic czy nie zaminione z AC_020</t>
+  </si>
+  <si>
+    <t>nieuzywane</t>
+  </si>
+  <si>
+    <t>SPA_WC</t>
+  </si>
+  <si>
+    <t>SPA_1</t>
+  </si>
+  <si>
+    <t>SPA_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,6 +1135,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1157,7 +1185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1175,6 +1203,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3952,8 +3986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0896514F-BA47-4116-910D-622420A11612}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4664,7 +4698,7 @@
         <v>69</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>68</v>
+        <v>358</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>269</v>
@@ -4675,7 +4709,7 @@
         <v>70</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>69</v>
+        <v>359</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>270</v>
@@ -4686,7 +4720,7 @@
         <v>71</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>70</v>
+        <v>360</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>271</v>
@@ -4702,7 +4736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C99E74-2DC6-4D53-8052-70DB62DA5F38}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -5363,6 +5397,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
@@ -5379,14 +5421,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5984,10 +6018,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25356D54-50E4-4E34-9BDC-C5B9AC0A4AB1}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5996,7 +6030,8 @@
     <col min="2" max="2" width="34.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6403,7 +6438,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>201</v>
       </c>
@@ -6417,7 +6452,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>202</v>
       </c>
@@ -6429,12 +6464,12 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>203</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>187</v>
+        <v>354</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -6442,20 +6477,24 @@
       <c r="D35" s="6" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>204</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>188</v>
+        <v>355</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>205</v>
       </c>
@@ -6468,8 +6507,11 @@
       <c r="D37" s="6" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>206</v>
       </c>
@@ -6480,8 +6522,9 @@
         <v>32</v>
       </c>
       <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>207</v>
       </c>
@@ -6495,7 +6538,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>208</v>
       </c>
@@ -6507,7 +6550,7 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>209</v>
       </c>
@@ -6521,7 +6564,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>210</v>
       </c>
@@ -6534,7 +6577,17 @@
       <c r="D42" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
@@ -6547,14 +6600,6 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6565,7 +6610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AF4B9D-E8DD-4B97-A4B3-5993D1FD406D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A021BB5E-65A7-43E1-A9AC-FC69B7D5E9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FAAF83-D41F-4D58-979A-B0D3D3F7579E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="2" r:id="rId1"/>
@@ -1493,7 +1493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AB5750-FA9E-494B-BF4E-2646FF05F6F3}">
   <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
@@ -4736,7 +4736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C99E74-2DC6-4D53-8052-70DB62DA5F38}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -5397,14 +5397,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
@@ -5421,6 +5413,14 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5431,7 +5431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328E899F-C965-41CD-B3DB-EF22983B0CF5}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -6020,7 +6020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25356D54-50E4-4E34-9BDC-C5B9AC0A4AB1}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -6578,16 +6578,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
@@ -6600,6 +6590,16 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FAAF83-D41F-4D58-979A-B0D3D3F7579E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997FA3FF-EEA8-4E1F-9649-A77C66375505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="362">
   <si>
     <t>Kuchnia_barek</t>
   </si>
@@ -1007,66 +1007,9 @@
     <t>EntranceDeathZone</t>
   </si>
   <si>
-    <t>AC_001</t>
-  </si>
-  <si>
-    <t>AC_002</t>
-  </si>
-  <si>
-    <t>AC_003</t>
-  </si>
-  <si>
-    <t>AC_004</t>
-  </si>
-  <si>
-    <t>AC_005</t>
-  </si>
-  <si>
-    <t>AC_006</t>
-  </si>
-  <si>
-    <t>AC_007</t>
-  </si>
-  <si>
-    <t>AC_008</t>
-  </si>
-  <si>
-    <t>AC_009</t>
-  </si>
-  <si>
-    <t>AC_010</t>
-  </si>
-  <si>
-    <t>AC_011</t>
-  </si>
-  <si>
-    <t>AC_012</t>
-  </si>
-  <si>
-    <t>AC_013</t>
-  </si>
-  <si>
-    <t>AC_014</t>
-  </si>
-  <si>
-    <t>AC_015</t>
-  </si>
-  <si>
-    <t>AC_016</t>
-  </si>
-  <si>
-    <t>AC_017</t>
-  </si>
-  <si>
     <t>AC_018</t>
   </si>
   <si>
-    <t>AC_019</t>
-  </si>
-  <si>
-    <t>AC_020</t>
-  </si>
-  <si>
     <t>Gate_001</t>
   </si>
   <si>
@@ -1100,9 +1043,6 @@
     <t>Garderoba_SOLO_Heat</t>
   </si>
   <si>
-    <t>sprawdzic czy nie zaminione z AC_020</t>
-  </si>
-  <si>
     <t>nieuzywane</t>
   </si>
   <si>
@@ -1113,6 +1053,69 @@
   </si>
   <si>
     <t>SPA_2</t>
+  </si>
+  <si>
+    <t>Zone_10</t>
+  </si>
+  <si>
+    <t>Zone_09</t>
+  </si>
+  <si>
+    <t>Zone_08</t>
+  </si>
+  <si>
+    <t>Zone_13</t>
+  </si>
+  <si>
+    <t>sprawdzic czy nie zaminione z Zone_22</t>
+  </si>
+  <si>
+    <t>Zone_21</t>
+  </si>
+  <si>
+    <t>Zone_24</t>
+  </si>
+  <si>
+    <t>Zone_25</t>
+  </si>
+  <si>
+    <t>Zone_14</t>
+  </si>
+  <si>
+    <t>Zone_26</t>
+  </si>
+  <si>
+    <t>Zone_07</t>
+  </si>
+  <si>
+    <t>Zone_17</t>
+  </si>
+  <si>
+    <t>Zone_05</t>
+  </si>
+  <si>
+    <t>Zone_01</t>
+  </si>
+  <si>
+    <t>Zone_18</t>
+  </si>
+  <si>
+    <t>Zone_03</t>
+  </si>
+  <si>
+    <t>Zone_19</t>
+  </si>
+  <si>
+    <t>Zone_20</t>
+  </si>
+  <si>
+    <t>Zone_12</t>
+  </si>
+  <si>
+    <t>Zone_22</t>
+  </si>
+  <si>
+    <t>sprawdzic czy nie zaminione z Zone_20</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1208,7 +1211,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4698,7 +4704,7 @@
         <v>69</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>269</v>
@@ -4709,7 +4715,7 @@
         <v>70</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>270</v>
@@ -4720,7 +4726,7 @@
         <v>71</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>271</v>
@@ -6020,8 +6026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25356D54-50E4-4E34-9BDC-C5B9AC0A4AB1}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6059,7 +6065,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6085,7 +6091,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6111,7 +6117,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6137,7 +6143,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -6163,7 +6169,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6189,7 +6195,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -6215,7 +6221,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6241,7 +6247,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6267,7 +6273,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6293,7 +6299,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6319,7 +6325,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6345,7 +6351,7 @@
         <v>32</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -6371,7 +6377,7 @@
         <v>32</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6397,7 +6403,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6423,7 +6429,7 @@
         <v>32</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6449,7 +6455,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -6469,16 +6475,16 @@
         <v>203</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -6486,7 +6492,7 @@
         <v>204</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -6495,34 +6501,34 @@
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>205</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>357</v>
+      <c r="C37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>206</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="8"/>
+      <c r="C38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -6535,7 +6541,7 @@
         <v>32</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -6561,7 +6567,10 @@
         <v>32</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>344</v>
+        <v>360</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -6575,9 +6584,10 @@
         <v>32</v>
       </c>
       <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
@@ -6600,6 +6610,7 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E41:E42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6652,7 +6663,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6666,7 +6677,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6680,7 +6691,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6694,7 +6705,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6708,7 +6719,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6722,7 +6733,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6736,7 +6747,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6750,7 +6761,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -6764,7 +6775,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
